--- a/Application/Assests/AssestFile.xlsx
+++ b/Application/Assests/AssestFile.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\awpa\Application\Assests\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB051AC-FFB2-46EC-B8F5-6FA076195C21}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{3F3173F4-DA2E-493E-B2C4-E5A908728420}"/>
   </bookViews>
@@ -35,18 +36,6 @@
     <t>Assest Period</t>
   </si>
   <si>
-    <t>1st</t>
-  </si>
-  <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>4th</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
@@ -134,30 +123,6 @@
     <t>Semester</t>
   </si>
   <si>
-    <t>1st Semester</t>
-  </si>
-  <si>
-    <t>2nd Semester</t>
-  </si>
-  <si>
-    <t>3rd Semester</t>
-  </si>
-  <si>
-    <t>4th Semester</t>
-  </si>
-  <si>
-    <t>5th Semester</t>
-  </si>
-  <si>
-    <t>6th Semester</t>
-  </si>
-  <si>
-    <t>7th Semester</t>
-  </si>
-  <si>
-    <t>8th Semester</t>
-  </si>
-  <si>
     <t>GC</t>
   </si>
   <si>
@@ -195,6 +160,42 @@
   </si>
   <si>
     <t>EC6016 - Opto Electronic Devices</t>
+  </si>
+  <si>
+    <t>HCI</t>
+  </si>
+  <si>
+    <t>CS6008 - HUMAN COMPUTER INTERACTION</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>CS6403 - SOFTWARE ENGINEERING</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>CS6401 - OPERATING SYSTEMS</t>
+  </si>
+  <si>
+    <t>CS6301 - PROGRAMMING AND DATA STRUCTURES II</t>
+  </si>
+  <si>
+    <t>PDS2</t>
+  </si>
+  <si>
+    <t>PQT</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CS6551 - COMPUTER NETWORKS</t>
+  </si>
+  <si>
+    <t>MA6453 - PROBABILITY AND QUEUING THEORY</t>
   </si>
 </sst>
 </file>
@@ -230,11 +231,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +557,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,32 +578,32 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+      <c r="B4" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
+      <c r="B5" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -608,10 +613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2ACBF7-51BC-4A32-9C0A-2CBD3AAE9CE3}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,105 +626,153 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -745,58 +798,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +862,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,74 +873,74 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
+      <c r="B3" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
+      <c r="B4" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
+      <c r="B5" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
+      <c r="B6" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>40</v>
+      <c r="B7" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>41</v>
+      <c r="B8" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>42</v>
+      <c r="B9" s="3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
